--- a/assets/2018/Grades_20181126.xlsx
+++ b/assets/2018/Grades_20181126.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgkang/Dropbox/EOSC350_2018_Grades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgkang/Projects/eosc350website/assets/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="122">
   <si>
     <t>EOSC 350 ID</t>
   </si>
@@ -432,9 +432,6 @@
     <t>EM - TBL Individual [Total Pts: 10] |1730264</t>
   </si>
   <si>
-    <t>EM - TBL Team [Total Pts: 100] |1730291</t>
-  </si>
-  <si>
     <t>EM - Quiz Individual [Total Pts: 15] |1729279</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>EM - Lab II [Total Pts: 100] |1732589</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
 </sst>
 </file>
@@ -844,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL84"/>
+  <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,13 +885,12 @@
     <col min="31" max="31" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="30.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1003,11 +1002,8 @@
       <c r="AK1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>121</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1092,7 +1088,9 @@
       <c r="AB2" s="2">
         <v>7</v>
       </c>
-      <c r="AC2" s="2"/>
+      <c r="AC2" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD2" s="2">
         <v>89</v>
       </c>
@@ -1105,17 +1103,20 @@
       <c r="AG2" s="8">
         <v>5</v>
       </c>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2">
+        <v>90</v>
+      </c>
       <c r="AI2" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="2">
         <v>36</v>
       </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="AJ2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1200,7 +1201,9 @@
       <c r="AB3" s="2">
         <v>0</v>
       </c>
-      <c r="AC3" s="2"/>
+      <c r="AC3" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD3" s="2">
         <v>89</v>
       </c>
@@ -1213,17 +1216,20 @@
       <c r="AG3" s="8">
         <v>5</v>
       </c>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="2">
+        <v>90</v>
+      </c>
       <c r="AI3" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1314,9 @@
       <c r="AB4" s="2">
         <v>9</v>
       </c>
-      <c r="AC4" s="2"/>
+      <c r="AC4" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD4" s="2">
         <v>67</v>
       </c>
@@ -1321,17 +1329,20 @@
       <c r="AG4" s="8">
         <v>0</v>
       </c>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>100</v>
+      </c>
       <c r="AI4" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1427,9 @@
       <c r="AB5" s="2">
         <v>10</v>
       </c>
-      <c r="AC5" s="2"/>
+      <c r="AC5" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD5" s="2">
         <v>78</v>
       </c>
@@ -1429,17 +1442,20 @@
       <c r="AG5" s="8">
         <v>3</v>
       </c>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>90</v>
+      </c>
       <c r="AI5" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1540,9 @@
       <c r="AB6" s="2">
         <v>0</v>
       </c>
-      <c r="AC6" s="2"/>
+      <c r="AC6" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD6" s="2">
         <v>89</v>
       </c>
@@ -1537,17 +1555,20 @@
       <c r="AG6" s="8">
         <v>3</v>
       </c>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="2">
+        <v>80</v>
+      </c>
       <c r="AI6" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ6" s="2">
         <v>36</v>
       </c>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
+      <c r="AJ6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -1632,7 +1653,9 @@
       <c r="AB7" s="2">
         <v>10</v>
       </c>
-      <c r="AC7" s="2"/>
+      <c r="AC7" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD7" s="2">
         <v>100</v>
       </c>
@@ -1645,17 +1668,20 @@
       <c r="AG7" s="8">
         <v>2</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2">
+        <v>90</v>
+      </c>
       <c r="AI7" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1740,7 +1766,9 @@
       <c r="AB8" s="2">
         <v>7</v>
       </c>
-      <c r="AC8" s="2"/>
+      <c r="AC8" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD8" s="2">
         <v>78</v>
       </c>
@@ -1753,17 +1781,20 @@
       <c r="AG8" s="8">
         <v>6</v>
       </c>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="2">
+        <v>70</v>
+      </c>
       <c r="AI8" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ8" s="2">
         <v>36</v>
       </c>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AJ8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -1848,7 +1879,9 @@
       <c r="AB9" s="2">
         <v>10</v>
       </c>
-      <c r="AC9" s="2"/>
+      <c r="AC9" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD9" s="2">
         <v>0</v>
       </c>
@@ -1861,17 +1894,20 @@
       <c r="AG9" s="8">
         <v>5</v>
       </c>
-      <c r="AH9" s="2"/>
+      <c r="AH9" s="2">
+        <v>90</v>
+      </c>
       <c r="AI9" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -1956,7 +1992,9 @@
       <c r="AB10" s="2">
         <v>11</v>
       </c>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD10" s="2">
         <v>100</v>
       </c>
@@ -1969,17 +2007,20 @@
       <c r="AG10" s="8">
         <v>7</v>
       </c>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="2">
+        <v>80</v>
+      </c>
       <c r="AI10" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ10" s="2">
         <v>38</v>
       </c>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
+      <c r="AJ10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2064,7 +2105,9 @@
       <c r="AB11" s="2">
         <v>9</v>
       </c>
-      <c r="AC11" s="2"/>
+      <c r="AC11" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD11" s="2">
         <v>100</v>
       </c>
@@ -2077,17 +2120,20 @@
       <c r="AG11" s="8">
         <v>3</v>
       </c>
-      <c r="AH11" s="2"/>
+      <c r="AH11" s="2">
+        <v>60</v>
+      </c>
       <c r="AI11" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -2172,7 +2218,9 @@
       <c r="AB12" s="2">
         <v>0</v>
       </c>
-      <c r="AC12" s="2"/>
+      <c r="AC12" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD12" s="2">
         <v>0</v>
       </c>
@@ -2185,17 +2233,20 @@
       <c r="AG12" s="8">
         <v>0</v>
       </c>
-      <c r="AH12" s="2"/>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
       <c r="AI12" s="2">
         <v>0</v>
       </c>
-      <c r="AJ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
+      <c r="AJ12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -2280,7 +2331,9 @@
       <c r="AB13" s="2">
         <v>0</v>
       </c>
-      <c r="AC13" s="2"/>
+      <c r="AC13" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD13" s="2">
         <v>89</v>
       </c>
@@ -2293,17 +2346,20 @@
       <c r="AG13" s="8">
         <v>4</v>
       </c>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="2">
+        <v>90</v>
+      </c>
       <c r="AI13" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="2">
         <v>36</v>
       </c>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
+      <c r="AJ13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2388,7 +2444,9 @@
       <c r="AB14" s="2">
         <v>0</v>
       </c>
-      <c r="AC14" s="2"/>
+      <c r="AC14" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD14" s="2">
         <v>89</v>
       </c>
@@ -2401,17 +2459,20 @@
       <c r="AG14" s="8">
         <v>4</v>
       </c>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="2">
+        <v>80</v>
+      </c>
       <c r="AI14" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -2496,7 +2557,9 @@
       <c r="AB15" s="2">
         <v>8</v>
       </c>
-      <c r="AC15" s="2"/>
+      <c r="AC15" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD15" s="2">
         <v>100</v>
       </c>
@@ -2509,17 +2572,20 @@
       <c r="AG15" s="8">
         <v>6</v>
       </c>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="2">
+        <v>90</v>
+      </c>
       <c r="AI15" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="2">
         <v>36</v>
       </c>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
+      <c r="AJ15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>82</v>
       </c>
@@ -2604,7 +2670,9 @@
       <c r="AB16" s="2">
         <v>11</v>
       </c>
-      <c r="AC16" s="2"/>
+      <c r="AC16" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD16" s="2">
         <v>78</v>
       </c>
@@ -2617,17 +2685,20 @@
       <c r="AG16" s="8">
         <v>3</v>
       </c>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="2">
+        <v>60</v>
+      </c>
       <c r="AI16" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ16" s="2">
         <v>38</v>
       </c>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
+      <c r="AJ16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -2712,7 +2783,9 @@
       <c r="AB17" s="2">
         <v>12</v>
       </c>
-      <c r="AC17" s="2"/>
+      <c r="AC17" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD17" s="2">
         <v>78</v>
       </c>
@@ -2725,17 +2798,20 @@
       <c r="AG17" s="8">
         <v>6</v>
       </c>
-      <c r="AH17" s="2"/>
+      <c r="AH17" s="2">
+        <v>70</v>
+      </c>
       <c r="AI17" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ17" s="2">
         <v>38</v>
       </c>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
+      <c r="AJ17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -2820,7 +2896,9 @@
       <c r="AB18" s="2">
         <v>9</v>
       </c>
-      <c r="AC18" s="2"/>
+      <c r="AC18" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD18" s="2">
         <v>100</v>
       </c>
@@ -2833,17 +2911,20 @@
       <c r="AG18" s="8">
         <v>5</v>
       </c>
-      <c r="AH18" s="2"/>
+      <c r="AH18" s="2">
+        <v>90</v>
+      </c>
       <c r="AI18" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="2">
         <v>36</v>
       </c>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
+      <c r="AJ18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2928,7 +3009,9 @@
       <c r="AB19" s="2">
         <v>11</v>
       </c>
-      <c r="AC19" s="2"/>
+      <c r="AC19" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD19" s="2">
         <v>78</v>
       </c>
@@ -2941,17 +3024,20 @@
       <c r="AG19" s="8">
         <v>5</v>
       </c>
-      <c r="AH19" s="2"/>
+      <c r="AH19" s="2">
+        <v>90</v>
+      </c>
       <c r="AI19" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="2">
         <v>38</v>
       </c>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
+      <c r="AJ19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -3036,7 +3122,9 @@
       <c r="AB20" s="2">
         <v>10</v>
       </c>
-      <c r="AC20" s="2"/>
+      <c r="AC20" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD20" s="2">
         <v>89</v>
       </c>
@@ -3049,17 +3137,20 @@
       <c r="AG20" s="8">
         <v>3</v>
       </c>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="2">
+        <v>80</v>
+      </c>
       <c r="AI20" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ20" s="2">
         <v>38</v>
       </c>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
+      <c r="AJ20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
@@ -3144,7 +3235,9 @@
       <c r="AB21" s="2">
         <v>0</v>
       </c>
-      <c r="AC21" s="2"/>
+      <c r="AC21" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD21" s="2">
         <v>78</v>
       </c>
@@ -3157,17 +3250,20 @@
       <c r="AG21" s="8">
         <v>5</v>
       </c>
-      <c r="AH21" s="2"/>
+      <c r="AH21" s="2">
+        <v>40</v>
+      </c>
       <c r="AI21" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ21" s="2">
         <v>36</v>
       </c>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
+      <c r="AJ21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -3252,7 +3348,9 @@
       <c r="AB22" s="2">
         <v>12</v>
       </c>
-      <c r="AC22" s="2"/>
+      <c r="AC22" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD22" s="2">
         <v>56</v>
       </c>
@@ -3265,17 +3363,20 @@
       <c r="AG22" s="8">
         <v>2</v>
       </c>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="2">
+        <v>70</v>
+      </c>
       <c r="AI22" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3360,7 +3461,9 @@
       <c r="AB23" s="2">
         <v>11</v>
       </c>
-      <c r="AC23" s="2"/>
+      <c r="AC23" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD23" s="2">
         <v>100</v>
       </c>
@@ -3373,17 +3476,20 @@
       <c r="AG23" s="8">
         <v>5</v>
       </c>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="2">
+        <v>100</v>
+      </c>
       <c r="AI23" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ23" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -3468,7 +3574,9 @@
       <c r="AB24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="2"/>
+      <c r="AC24" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD24" s="2">
         <v>0</v>
       </c>
@@ -3481,17 +3589,20 @@
       <c r="AG24" s="8">
         <v>0</v>
       </c>
-      <c r="AH24" s="2"/>
+      <c r="AH24" s="2">
+        <v>0</v>
+      </c>
       <c r="AI24" s="2">
         <v>0</v>
       </c>
-      <c r="AJ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
+      <c r="AJ24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -3576,7 +3687,9 @@
       <c r="AB25" s="2">
         <v>0</v>
       </c>
-      <c r="AC25" s="2"/>
+      <c r="AC25" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD25" s="2">
         <v>0</v>
       </c>
@@ -3589,17 +3702,20 @@
       <c r="AG25" s="8">
         <v>0</v>
       </c>
-      <c r="AH25" s="2"/>
+      <c r="AH25" s="2">
+        <v>0</v>
+      </c>
       <c r="AI25" s="2">
         <v>0</v>
       </c>
-      <c r="AJ25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
+      <c r="AJ25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3684,7 +3800,9 @@
       <c r="AB26" s="2">
         <v>9</v>
       </c>
-      <c r="AC26" s="2"/>
+      <c r="AC26" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD26" s="2">
         <v>0</v>
       </c>
@@ -3697,17 +3815,20 @@
       <c r="AG26" s="8">
         <v>5</v>
       </c>
-      <c r="AH26" s="2"/>
+      <c r="AH26" s="2">
+        <v>50</v>
+      </c>
       <c r="AI26" s="2">
-        <v>50</v>
-      </c>
-      <c r="AJ26" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -3792,7 +3913,9 @@
       <c r="AB27" s="2">
         <v>5</v>
       </c>
-      <c r="AC27" s="2"/>
+      <c r="AC27" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD27" s="2">
         <v>100</v>
       </c>
@@ -3805,17 +3928,20 @@
       <c r="AG27" s="8">
         <v>0</v>
       </c>
-      <c r="AH27" s="2"/>
+      <c r="AH27" s="2">
+        <v>80</v>
+      </c>
       <c r="AI27" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ27" s="2">
         <v>38</v>
       </c>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
+      <c r="AJ27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
@@ -3900,7 +4026,9 @@
       <c r="AB28" s="2">
         <v>10</v>
       </c>
-      <c r="AC28" s="2"/>
+      <c r="AC28" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD28" s="2">
         <v>78</v>
       </c>
@@ -3913,17 +4041,20 @@
       <c r="AG28" s="8">
         <v>3</v>
       </c>
-      <c r="AH28" s="2"/>
+      <c r="AH28" s="2">
+        <v>70</v>
+      </c>
       <c r="AI28" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ28" s="2">
         <v>36</v>
       </c>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
+      <c r="AJ28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -4008,7 +4139,9 @@
       <c r="AB29" s="2">
         <v>10</v>
       </c>
-      <c r="AC29" s="2"/>
+      <c r="AC29" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD29" s="2">
         <v>67</v>
       </c>
@@ -4021,17 +4154,20 @@
       <c r="AG29" s="8">
         <v>3</v>
       </c>
-      <c r="AH29" s="2"/>
+      <c r="AH29" s="2">
+        <v>70</v>
+      </c>
       <c r="AI29" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ29" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -4116,7 +4252,9 @@
       <c r="AB30" s="2">
         <v>11</v>
       </c>
-      <c r="AC30" s="2"/>
+      <c r="AC30" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD30" s="2">
         <v>89</v>
       </c>
@@ -4129,17 +4267,20 @@
       <c r="AG30" s="8">
         <v>2</v>
       </c>
-      <c r="AH30" s="2"/>
+      <c r="AH30" s="2">
+        <v>70</v>
+      </c>
       <c r="AI30" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ30" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>43</v>
       </c>
@@ -4224,7 +4365,9 @@
       <c r="AB31" s="2">
         <v>9</v>
       </c>
-      <c r="AC31" s="2"/>
+      <c r="AC31" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD31" s="2">
         <v>89</v>
       </c>
@@ -4237,17 +4380,20 @@
       <c r="AG31" s="8">
         <v>6</v>
       </c>
-      <c r="AH31" s="2"/>
+      <c r="AH31" s="2">
+        <v>100</v>
+      </c>
       <c r="AI31" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ31" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -4332,7 +4478,9 @@
       <c r="AB32" s="2">
         <v>9</v>
       </c>
-      <c r="AC32" s="2"/>
+      <c r="AC32" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD32" s="2">
         <v>89</v>
       </c>
@@ -4345,17 +4493,20 @@
       <c r="AG32" s="8">
         <v>3</v>
       </c>
-      <c r="AH32" s="2"/>
+      <c r="AH32" s="2">
+        <v>70</v>
+      </c>
       <c r="AI32" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ32" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -4440,7 +4591,9 @@
       <c r="AB33" s="2">
         <v>0</v>
       </c>
-      <c r="AC33" s="2"/>
+      <c r="AC33" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD33" s="2">
         <v>67</v>
       </c>
@@ -4453,17 +4606,20 @@
       <c r="AG33" s="8">
         <v>5</v>
       </c>
-      <c r="AH33" s="2"/>
+      <c r="AH33" s="2">
+        <v>70</v>
+      </c>
       <c r="AI33" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ33" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -4548,7 +4704,9 @@
       <c r="AB34" s="2">
         <v>11</v>
       </c>
-      <c r="AC34" s="2"/>
+      <c r="AC34" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD34" s="2">
         <v>100</v>
       </c>
@@ -4561,17 +4719,20 @@
       <c r="AG34" s="8">
         <v>2</v>
       </c>
-      <c r="AH34" s="2"/>
+      <c r="AH34" s="2">
+        <v>80</v>
+      </c>
       <c r="AI34" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ34" s="2">
         <v>36</v>
       </c>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
+      <c r="AJ34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -4656,7 +4817,9 @@
       <c r="AB35" s="2">
         <v>8</v>
       </c>
-      <c r="AC35" s="2"/>
+      <c r="AC35" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD35" s="2">
         <v>56</v>
       </c>
@@ -4669,17 +4832,20 @@
       <c r="AG35" s="8">
         <v>2</v>
       </c>
-      <c r="AH35" s="2"/>
+      <c r="AH35" s="2">
+        <v>80</v>
+      </c>
       <c r="AI35" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ35" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -4764,7 +4930,9 @@
       <c r="AB36" s="2">
         <v>11</v>
       </c>
-      <c r="AC36" s="2"/>
+      <c r="AC36" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD36" s="2">
         <v>89</v>
       </c>
@@ -4777,17 +4945,20 @@
       <c r="AG36" s="8">
         <v>5</v>
       </c>
-      <c r="AH36" s="2"/>
+      <c r="AH36" s="2">
+        <v>100</v>
+      </c>
       <c r="AI36" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ36" s="2">
         <v>38</v>
       </c>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
+      <c r="AJ36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -4872,7 +5043,9 @@
       <c r="AB37" s="2">
         <v>10</v>
       </c>
-      <c r="AC37" s="2"/>
+      <c r="AC37" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD37" s="2">
         <v>89</v>
       </c>
@@ -4885,17 +5058,20 @@
       <c r="AG37" s="8">
         <v>3</v>
       </c>
-      <c r="AH37" s="2"/>
+      <c r="AH37" s="2">
+        <v>50</v>
+      </c>
       <c r="AI37" s="2">
-        <v>50</v>
-      </c>
-      <c r="AJ37" s="2">
         <v>38</v>
       </c>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
+      <c r="AJ37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK37" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -4980,7 +5156,9 @@
       <c r="AB38" s="2">
         <v>0</v>
       </c>
-      <c r="AC38" s="2"/>
+      <c r="AC38" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD38" s="2">
         <v>0</v>
       </c>
@@ -4993,17 +5171,20 @@
       <c r="AG38" s="8">
         <v>3</v>
       </c>
-      <c r="AH38" s="2"/>
+      <c r="AH38" s="2">
+        <v>0</v>
+      </c>
       <c r="AI38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="2">
         <v>38</v>
       </c>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
+      <c r="AJ38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK38" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -5088,7 +5269,9 @@
       <c r="AB39" s="2">
         <v>12</v>
       </c>
-      <c r="AC39" s="2"/>
+      <c r="AC39" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD39" s="2">
         <v>89</v>
       </c>
@@ -5101,17 +5284,20 @@
       <c r="AG39" s="8">
         <v>4</v>
       </c>
-      <c r="AH39" s="2"/>
+      <c r="AH39" s="2">
+        <v>90</v>
+      </c>
       <c r="AI39" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ39" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK39" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -5196,7 +5382,9 @@
       <c r="AB40" s="2">
         <v>9</v>
       </c>
-      <c r="AC40" s="2"/>
+      <c r="AC40" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD40" s="2">
         <v>0</v>
       </c>
@@ -5209,17 +5397,20 @@
       <c r="AG40" s="8">
         <v>0</v>
       </c>
-      <c r="AH40" s="2"/>
+      <c r="AH40" s="2">
+        <v>40</v>
+      </c>
       <c r="AI40" s="2">
         <v>40</v>
       </c>
-      <c r="AJ40" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
+      <c r="AJ40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK40" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
@@ -5304,7 +5495,9 @@
       <c r="AB41" s="2">
         <v>11</v>
       </c>
-      <c r="AC41" s="2"/>
+      <c r="AC41" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD41" s="2">
         <v>89</v>
       </c>
@@ -5317,17 +5510,20 @@
       <c r="AG41" s="8">
         <v>3</v>
       </c>
-      <c r="AH41" s="2"/>
+      <c r="AH41" s="2">
+        <v>90</v>
+      </c>
       <c r="AI41" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ41" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK41" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -5412,7 +5608,9 @@
       <c r="AB42" s="2">
         <v>0</v>
       </c>
-      <c r="AC42" s="2"/>
+      <c r="AC42" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD42" s="2">
         <v>0</v>
       </c>
@@ -5425,17 +5623,20 @@
       <c r="AG42" s="8">
         <v>0</v>
       </c>
-      <c r="AH42" s="2"/>
+      <c r="AH42" s="2">
+        <v>0</v>
+      </c>
       <c r="AI42" s="2">
         <v>0</v>
       </c>
-      <c r="AJ42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
+      <c r="AJ42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK42" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -5520,7 +5721,9 @@
       <c r="AB43" s="2">
         <v>11</v>
       </c>
-      <c r="AC43" s="2"/>
+      <c r="AC43" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD43" s="2">
         <v>44</v>
       </c>
@@ -5533,17 +5736,20 @@
       <c r="AG43" s="8">
         <v>5</v>
       </c>
-      <c r="AH43" s="2"/>
+      <c r="AH43" s="2">
+        <v>90</v>
+      </c>
       <c r="AI43" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ43" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK43" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -5628,7 +5834,9 @@
       <c r="AB44" s="2">
         <v>10</v>
       </c>
-      <c r="AC44" s="2"/>
+      <c r="AC44" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD44" s="2">
         <v>100</v>
       </c>
@@ -5641,17 +5849,20 @@
       <c r="AG44" s="8">
         <v>6</v>
       </c>
-      <c r="AH44" s="2"/>
+      <c r="AH44" s="2">
+        <v>100</v>
+      </c>
       <c r="AI44" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ44" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK44" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -5734,7 +5945,9 @@
       <c r="AB45" s="2">
         <v>0</v>
       </c>
-      <c r="AC45" s="2"/>
+      <c r="AC45" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD45" s="2">
         <v>89</v>
       </c>
@@ -5747,17 +5960,20 @@
       <c r="AG45" s="8">
         <v>0</v>
       </c>
-      <c r="AH45" s="2"/>
+      <c r="AH45" s="2">
+        <v>100</v>
+      </c>
       <c r="AI45" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ45" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -5840,7 +6056,9 @@
       <c r="AB46" s="2">
         <v>10</v>
       </c>
-      <c r="AC46" s="2"/>
+      <c r="AC46" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD46" s="2">
         <v>89</v>
       </c>
@@ -5853,17 +6071,20 @@
       <c r="AG46" s="8">
         <v>3</v>
       </c>
-      <c r="AH46" s="2"/>
+      <c r="AH46" s="2">
+        <v>100</v>
+      </c>
       <c r="AI46" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ46" s="2">
         <v>38</v>
       </c>
-      <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
+      <c r="AJ46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -5948,7 +6169,9 @@
       <c r="AB47" s="2">
         <v>0</v>
       </c>
-      <c r="AC47" s="2"/>
+      <c r="AC47" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD47" s="2">
         <v>100</v>
       </c>
@@ -5961,17 +6184,20 @@
       <c r="AG47" s="8">
         <v>4</v>
       </c>
-      <c r="AH47" s="2"/>
+      <c r="AH47" s="2">
+        <v>90</v>
+      </c>
       <c r="AI47" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ47" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK47" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -6056,7 +6282,9 @@
       <c r="AB48" s="2">
         <v>7</v>
       </c>
-      <c r="AC48" s="2"/>
+      <c r="AC48" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD48" s="2">
         <v>56</v>
       </c>
@@ -6069,17 +6297,20 @@
       <c r="AG48" s="8">
         <v>5</v>
       </c>
-      <c r="AH48" s="2"/>
+      <c r="AH48" s="2">
+        <v>50</v>
+      </c>
       <c r="AI48" s="2">
-        <v>50</v>
-      </c>
-      <c r="AJ48" s="2">
         <v>38</v>
       </c>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
+      <c r="AJ48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK48" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
@@ -6164,7 +6395,9 @@
       <c r="AB49" s="2">
         <v>9</v>
       </c>
-      <c r="AC49" s="2"/>
+      <c r="AC49" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD49" s="2">
         <v>89</v>
       </c>
@@ -6177,17 +6410,20 @@
       <c r="AG49" s="8">
         <v>3</v>
       </c>
-      <c r="AH49" s="2"/>
+      <c r="AH49" s="2">
+        <v>80</v>
+      </c>
       <c r="AI49" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ49" s="2">
         <v>38</v>
       </c>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
+      <c r="AJ49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK49" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -6272,7 +6508,9 @@
       <c r="AB50" s="2">
         <v>0</v>
       </c>
-      <c r="AC50" s="2"/>
+      <c r="AC50" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD50" s="2">
         <v>89</v>
       </c>
@@ -6285,17 +6523,20 @@
       <c r="AG50" s="8">
         <v>5</v>
       </c>
-      <c r="AH50" s="2"/>
+      <c r="AH50" s="2">
+        <v>90</v>
+      </c>
       <c r="AI50" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ50" s="2">
         <v>36</v>
       </c>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
+      <c r="AJ50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK50" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -6380,7 +6621,9 @@
       <c r="AB51" s="2">
         <v>0</v>
       </c>
-      <c r="AC51" s="2"/>
+      <c r="AC51" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD51" s="2">
         <v>0</v>
       </c>
@@ -6393,17 +6636,20 @@
       <c r="AG51" s="8">
         <v>0</v>
       </c>
-      <c r="AH51" s="2"/>
+      <c r="AH51" s="2">
+        <v>0</v>
+      </c>
       <c r="AI51" s="2">
         <v>0</v>
       </c>
-      <c r="AJ51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
+      <c r="AJ51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK51" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
@@ -6488,7 +6734,9 @@
       <c r="AB52" s="2">
         <v>11</v>
       </c>
-      <c r="AC52" s="2"/>
+      <c r="AC52" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD52" s="2">
         <v>67</v>
       </c>
@@ -6501,17 +6749,20 @@
       <c r="AG52" s="8">
         <v>5</v>
       </c>
-      <c r="AH52" s="2"/>
+      <c r="AH52" s="2">
+        <v>100</v>
+      </c>
       <c r="AI52" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ52" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK52" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>26</v>
       </c>
@@ -6596,7 +6847,9 @@
       <c r="AB53" s="2">
         <v>8</v>
       </c>
-      <c r="AC53" s="2"/>
+      <c r="AC53" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD53" s="2">
         <v>67</v>
       </c>
@@ -6609,17 +6862,20 @@
       <c r="AG53" s="8">
         <v>6</v>
       </c>
-      <c r="AH53" s="2"/>
+      <c r="AH53" s="2">
+        <v>70</v>
+      </c>
       <c r="AI53" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ53" s="2">
         <v>36</v>
       </c>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
+      <c r="AJ53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK53" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="54" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -6704,7 +6960,9 @@
       <c r="AB54" s="2">
         <v>8</v>
       </c>
-      <c r="AC54" s="2"/>
+      <c r="AC54" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD54" s="2">
         <v>33</v>
       </c>
@@ -6717,17 +6975,20 @@
       <c r="AG54" s="8">
         <v>3</v>
       </c>
-      <c r="AH54" s="2"/>
+      <c r="AH54" s="2">
+        <v>70</v>
+      </c>
       <c r="AI54" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ54" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK54" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="55" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>74</v>
       </c>
@@ -6812,7 +7073,9 @@
       <c r="AB55" s="2">
         <v>10</v>
       </c>
-      <c r="AC55" s="2"/>
+      <c r="AC55" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD55" s="2">
         <v>89</v>
       </c>
@@ -6825,17 +7088,20 @@
       <c r="AG55" s="8">
         <v>4</v>
       </c>
-      <c r="AH55" s="2"/>
+      <c r="AH55" s="2">
+        <v>100</v>
+      </c>
       <c r="AI55" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ55" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK55" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>29</v>
       </c>
@@ -6920,7 +7186,9 @@
       <c r="AB56" s="2">
         <v>10</v>
       </c>
-      <c r="AC56" s="2"/>
+      <c r="AC56" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD56" s="2">
         <v>89</v>
       </c>
@@ -6933,17 +7201,20 @@
       <c r="AG56" s="8">
         <v>4</v>
       </c>
-      <c r="AH56" s="2"/>
+      <c r="AH56" s="2">
+        <v>90</v>
+      </c>
       <c r="AI56" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ56" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK56" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>15</v>
       </c>
@@ -7028,7 +7299,9 @@
       <c r="AB57" s="2">
         <v>0</v>
       </c>
-      <c r="AC57" s="2"/>
+      <c r="AC57" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD57" s="2">
         <v>89</v>
       </c>
@@ -7041,17 +7314,20 @@
       <c r="AG57" s="8">
         <v>0</v>
       </c>
-      <c r="AH57" s="2"/>
+      <c r="AH57" s="2">
+        <v>20</v>
+      </c>
       <c r="AI57" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ57" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK57" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="58" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -7136,7 +7412,9 @@
       <c r="AB58" s="2">
         <v>10</v>
       </c>
-      <c r="AC58" s="2"/>
+      <c r="AC58" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD58" s="2">
         <v>67</v>
       </c>
@@ -7149,17 +7427,20 @@
       <c r="AG58" s="8">
         <v>0</v>
       </c>
-      <c r="AH58" s="2"/>
+      <c r="AH58" s="2">
+        <v>70</v>
+      </c>
       <c r="AI58" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ58" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK58" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="59" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>41</v>
       </c>
@@ -7244,7 +7525,9 @@
       <c r="AB59" s="2">
         <v>10</v>
       </c>
-      <c r="AC59" s="2"/>
+      <c r="AC59" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD59" s="2">
         <v>78</v>
       </c>
@@ -7257,17 +7540,20 @@
       <c r="AG59" s="8">
         <v>6</v>
       </c>
-      <c r="AH59" s="2"/>
+      <c r="AH59" s="2">
+        <v>90</v>
+      </c>
       <c r="AI59" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ59" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK59" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="60" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
@@ -7352,7 +7638,9 @@
       <c r="AB60" s="2">
         <v>9</v>
       </c>
-      <c r="AC60" s="2"/>
+      <c r="AC60" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD60" s="2">
         <v>67</v>
       </c>
@@ -7365,17 +7653,20 @@
       <c r="AG60" s="8">
         <v>4</v>
       </c>
-      <c r="AH60" s="2"/>
+      <c r="AH60" s="2">
+        <v>80</v>
+      </c>
       <c r="AI60" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ60" s="2">
         <v>38</v>
       </c>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
+      <c r="AJ60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK60" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>39</v>
       </c>
@@ -7460,7 +7751,9 @@
       <c r="AB61" s="2">
         <v>10</v>
       </c>
-      <c r="AC61" s="2"/>
+      <c r="AC61" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD61" s="2">
         <v>67</v>
       </c>
@@ -7473,17 +7766,20 @@
       <c r="AG61" s="8">
         <v>3</v>
       </c>
-      <c r="AH61" s="2"/>
+      <c r="AH61" s="2">
+        <v>50</v>
+      </c>
       <c r="AI61" s="2">
-        <v>50</v>
-      </c>
-      <c r="AJ61" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK61" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
@@ -7568,7 +7864,9 @@
       <c r="AB62" s="2">
         <v>11</v>
       </c>
-      <c r="AC62" s="2"/>
+      <c r="AC62" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD62" s="2">
         <v>100</v>
       </c>
@@ -7581,17 +7879,20 @@
       <c r="AG62" s="8">
         <v>6</v>
       </c>
-      <c r="AH62" s="2"/>
+      <c r="AH62" s="2">
+        <v>0</v>
+      </c>
       <c r="AI62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK62" s="2"/>
-      <c r="AL62" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK62" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="63" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>13</v>
       </c>
@@ -7676,7 +7977,9 @@
       <c r="AB63" s="2">
         <v>0</v>
       </c>
-      <c r="AC63" s="2"/>
+      <c r="AC63" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD63" s="2">
         <v>78</v>
       </c>
@@ -7689,17 +7992,20 @@
       <c r="AG63" s="8">
         <v>4</v>
       </c>
-      <c r="AH63" s="2"/>
+      <c r="AH63" s="2">
+        <v>90</v>
+      </c>
       <c r="AI63" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ63" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK63" s="2"/>
-      <c r="AL63" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK63" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="64" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
@@ -7782,7 +8088,9 @@
       <c r="AB64" s="2">
         <v>9</v>
       </c>
-      <c r="AC64" s="2"/>
+      <c r="AC64" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD64" s="2">
         <v>67</v>
       </c>
@@ -7795,17 +8103,20 @@
       <c r="AG64" s="8">
         <v>6</v>
       </c>
-      <c r="AH64" s="2"/>
+      <c r="AH64" s="2">
+        <v>90</v>
+      </c>
       <c r="AI64" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ64" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" s="2"/>
-      <c r="AL64" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK64" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="65" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +8201,9 @@
       <c r="AB65" s="2">
         <v>0</v>
       </c>
-      <c r="AC65" s="2"/>
+      <c r="AC65" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD65" s="2">
         <v>78</v>
       </c>
@@ -7903,17 +8216,20 @@
       <c r="AG65" s="8">
         <v>5</v>
       </c>
-      <c r="AH65" s="2"/>
+      <c r="AH65" s="2">
+        <v>40</v>
+      </c>
       <c r="AI65" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ65" s="2">
         <v>36</v>
       </c>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
+      <c r="AJ65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK65" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="66" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>75</v>
       </c>
@@ -7998,7 +8314,9 @@
       <c r="AB66" s="2">
         <v>10</v>
       </c>
-      <c r="AC66" s="2"/>
+      <c r="AC66" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD66" s="2">
         <v>89</v>
       </c>
@@ -8011,17 +8329,20 @@
       <c r="AG66" s="8">
         <v>3</v>
       </c>
-      <c r="AH66" s="2"/>
+      <c r="AH66" s="2">
+        <v>70</v>
+      </c>
       <c r="AI66" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ66" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK66" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="67" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
@@ -8106,7 +8427,9 @@
       <c r="AB67" s="2">
         <v>11</v>
       </c>
-      <c r="AC67" s="2"/>
+      <c r="AC67" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD67" s="2">
         <v>67</v>
       </c>
@@ -8119,17 +8442,20 @@
       <c r="AG67" s="8">
         <v>3</v>
       </c>
-      <c r="AH67" s="2"/>
+      <c r="AH67" s="2">
+        <v>100</v>
+      </c>
       <c r="AI67" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ67" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK67" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="68" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -8214,7 +8540,9 @@
       <c r="AB68" s="2">
         <v>9</v>
       </c>
-      <c r="AC68" s="2"/>
+      <c r="AC68" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD68" s="2">
         <v>67</v>
       </c>
@@ -8227,17 +8555,20 @@
       <c r="AG68" s="8">
         <v>4</v>
       </c>
-      <c r="AH68" s="2"/>
+      <c r="AH68" s="2">
+        <v>80</v>
+      </c>
       <c r="AI68" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" s="2">
         <v>36</v>
       </c>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
+      <c r="AJ68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK68" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="69" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
@@ -8322,7 +8653,9 @@
       <c r="AB69" s="2">
         <v>9</v>
       </c>
-      <c r="AC69" s="2"/>
+      <c r="AC69" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD69" s="2">
         <v>78</v>
       </c>
@@ -8335,17 +8668,20 @@
       <c r="AG69" s="8">
         <v>5</v>
       </c>
-      <c r="AH69" s="2"/>
+      <c r="AH69" s="2">
+        <v>80</v>
+      </c>
       <c r="AI69" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ69" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" s="2"/>
-      <c r="AL69" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK69" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="70" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>55</v>
       </c>
@@ -8430,7 +8766,9 @@
       <c r="AB70" s="2">
         <v>7</v>
       </c>
-      <c r="AC70" s="2"/>
+      <c r="AC70" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD70" s="2">
         <v>67</v>
       </c>
@@ -8443,17 +8781,20 @@
       <c r="AG70" s="8">
         <v>3</v>
       </c>
-      <c r="AH70" s="2"/>
+      <c r="AH70" s="2">
+        <v>40</v>
+      </c>
       <c r="AI70" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ70" s="2">
         <v>38</v>
       </c>
-      <c r="AK70" s="2"/>
-      <c r="AL70" s="2"/>
+      <c r="AJ70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK70" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="71" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -8538,7 +8879,9 @@
       <c r="AB71" s="2">
         <v>11</v>
       </c>
-      <c r="AC71" s="2"/>
+      <c r="AC71" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD71" s="2">
         <v>78</v>
       </c>
@@ -8551,17 +8894,20 @@
       <c r="AG71" s="8">
         <v>7</v>
       </c>
-      <c r="AH71" s="2"/>
+      <c r="AH71" s="2">
+        <v>80</v>
+      </c>
       <c r="AI71" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ71" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" s="2"/>
-      <c r="AL71" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK71" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="72" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>60</v>
       </c>
@@ -8646,7 +8992,9 @@
       <c r="AB72" s="2">
         <v>0</v>
       </c>
-      <c r="AC72" s="2"/>
+      <c r="AC72" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD72" s="2">
         <v>89</v>
       </c>
@@ -8659,17 +9007,20 @@
       <c r="AG72" s="8">
         <v>5</v>
       </c>
-      <c r="AH72" s="2"/>
+      <c r="AH72" s="2">
+        <v>50</v>
+      </c>
       <c r="AI72" s="2">
-        <v>50</v>
-      </c>
-      <c r="AJ72" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" s="2"/>
-      <c r="AL72" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK72" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="73" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>14</v>
       </c>
@@ -8754,7 +9105,9 @@
       <c r="AB73" s="2">
         <v>5</v>
       </c>
-      <c r="AC73" s="2"/>
+      <c r="AC73" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD73" s="2">
         <v>0</v>
       </c>
@@ -8767,17 +9120,20 @@
       <c r="AG73" s="8">
         <v>5</v>
       </c>
-      <c r="AH73" s="2"/>
+      <c r="AH73" s="2">
+        <v>80</v>
+      </c>
       <c r="AI73" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" s="2"/>
-      <c r="AL73" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK73" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
@@ -8862,7 +9218,9 @@
       <c r="AB74" s="2">
         <v>8</v>
       </c>
-      <c r="AC74" s="2"/>
+      <c r="AC74" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD74" s="2">
         <v>78</v>
       </c>
@@ -8875,17 +9233,20 @@
       <c r="AG74" s="8">
         <v>6</v>
       </c>
-      <c r="AH74" s="2"/>
+      <c r="AH74" s="2">
+        <v>60</v>
+      </c>
       <c r="AI74" s="2">
-        <v>60</v>
-      </c>
-      <c r="AJ74" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" s="2"/>
-      <c r="AL74" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK74" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="75" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>18</v>
       </c>
@@ -8970,7 +9331,9 @@
       <c r="AB75" s="2">
         <v>0</v>
       </c>
-      <c r="AC75" s="2"/>
+      <c r="AC75" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD75" s="2">
         <v>89</v>
       </c>
@@ -8983,17 +9346,20 @@
       <c r="AG75" s="8">
         <v>2</v>
       </c>
-      <c r="AH75" s="2"/>
+      <c r="AH75" s="2">
+        <v>70</v>
+      </c>
       <c r="AI75" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ75" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" s="2"/>
-      <c r="AL75" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK75" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="76" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -9078,7 +9444,9 @@
       <c r="AB76" s="2">
         <v>9</v>
       </c>
-      <c r="AC76" s="2"/>
+      <c r="AC76" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD76" s="2">
         <v>78</v>
       </c>
@@ -9091,17 +9459,20 @@
       <c r="AG76" s="8">
         <v>6</v>
       </c>
-      <c r="AH76" s="2"/>
+      <c r="AH76" s="2">
+        <v>90</v>
+      </c>
       <c r="AI76" s="2">
-        <v>90</v>
-      </c>
-      <c r="AJ76" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" s="2"/>
-      <c r="AL76" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK76" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="77" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -9184,7 +9555,9 @@
       <c r="AB77" s="2">
         <v>11</v>
       </c>
-      <c r="AC77" s="2"/>
+      <c r="AC77" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD77" s="2">
         <v>78</v>
       </c>
@@ -9197,17 +9570,20 @@
       <c r="AG77" s="8">
         <v>5</v>
       </c>
-      <c r="AH77" s="2"/>
+      <c r="AH77" s="2">
+        <v>100</v>
+      </c>
       <c r="AI77" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ77" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" s="2"/>
-      <c r="AL77" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK77" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="78" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -9292,7 +9668,9 @@
       <c r="AB78" s="2">
         <v>10</v>
       </c>
-      <c r="AC78" s="2"/>
+      <c r="AC78" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD78" s="2">
         <v>67</v>
       </c>
@@ -9305,17 +9683,20 @@
       <c r="AG78" s="8">
         <v>5</v>
       </c>
-      <c r="AH78" s="2"/>
+      <c r="AH78" s="2">
+        <v>70</v>
+      </c>
       <c r="AI78" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ78" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" s="2"/>
-      <c r="AL78" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK78" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="79" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>61</v>
       </c>
@@ -9400,7 +9781,9 @@
       <c r="AB79" s="2">
         <v>10</v>
       </c>
-      <c r="AC79" s="2"/>
+      <c r="AC79" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD79" s="2">
         <v>67</v>
       </c>
@@ -9413,17 +9796,20 @@
       <c r="AG79" s="8">
         <v>2</v>
       </c>
-      <c r="AH79" s="2"/>
+      <c r="AH79" s="2">
+        <v>80</v>
+      </c>
       <c r="AI79" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ79" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK79" s="2"/>
-      <c r="AL79" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK79" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="80" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -9508,7 +9894,9 @@
       <c r="AB80" s="2">
         <v>9</v>
       </c>
-      <c r="AC80" s="2"/>
+      <c r="AC80" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD80" s="2">
         <v>89</v>
       </c>
@@ -9521,17 +9909,20 @@
       <c r="AG80" s="8">
         <v>3</v>
       </c>
-      <c r="AH80" s="2"/>
+      <c r="AH80" s="2">
+        <v>80</v>
+      </c>
       <c r="AI80" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ80" s="2">
         <v>36</v>
       </c>
-      <c r="AK80" s="2"/>
-      <c r="AL80" s="2"/>
+      <c r="AJ80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK80" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="81" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>47</v>
       </c>
@@ -9616,7 +10007,9 @@
       <c r="AB81" s="2">
         <v>8</v>
       </c>
-      <c r="AC81" s="2"/>
+      <c r="AC81" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD81" s="2">
         <v>89</v>
       </c>
@@ -9629,17 +10022,20 @@
       <c r="AG81" s="8">
         <v>4</v>
       </c>
-      <c r="AH81" s="2"/>
+      <c r="AH81" s="2">
+        <v>70</v>
+      </c>
       <c r="AI81" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ81" s="2">
         <v>38</v>
       </c>
-      <c r="AK81" s="2"/>
-      <c r="AL81" s="2"/>
+      <c r="AJ81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK81" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="82" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>21</v>
       </c>
@@ -9724,7 +10120,9 @@
       <c r="AB82" s="2">
         <v>9</v>
       </c>
-      <c r="AC82" s="2"/>
+      <c r="AC82" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD82" s="2">
         <v>100</v>
       </c>
@@ -9737,17 +10135,20 @@
       <c r="AG82" s="8">
         <v>7</v>
       </c>
-      <c r="AH82" s="2"/>
+      <c r="AH82" s="2">
+        <v>100</v>
+      </c>
       <c r="AI82" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ82" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK82" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="83" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -9830,7 +10231,9 @@
       <c r="AB83" s="2">
         <v>11</v>
       </c>
-      <c r="AC83" s="2"/>
+      <c r="AC83" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD83" s="2">
         <v>78</v>
       </c>
@@ -9843,17 +10246,20 @@
       <c r="AG83" s="8">
         <v>0</v>
       </c>
-      <c r="AH83" s="2"/>
+      <c r="AH83" s="2">
+        <v>70</v>
+      </c>
       <c r="AI83" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ83" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" s="2"/>
-      <c r="AL83" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK83" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
@@ -9938,7 +10344,9 @@
       <c r="AB84" s="2">
         <v>9</v>
       </c>
-      <c r="AC84" s="2"/>
+      <c r="AC84" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="AD84" s="2">
         <v>89</v>
       </c>
@@ -9951,15 +10359,18 @@
       <c r="AG84" s="8">
         <v>4</v>
       </c>
-      <c r="AH84" s="2"/>
+      <c r="AH84" s="2">
+        <v>100</v>
+      </c>
       <c r="AI84" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ84" s="2">
         <v>36</v>
       </c>
-      <c r="AK84" s="2"/>
-      <c r="AL84" s="2"/>
+      <c r="AJ84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK84" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/2018/Grades_20181126.xlsx
+++ b/assets/2018/Grades_20181126.xlsx
@@ -847,7 +847,7 @@
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC84"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,6 +888,7 @@
     <col min="34" max="34" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
